--- a/Python/Webcam Record Excel/recordings/20 Circle long time test 130s.xlsx
+++ b/Python/Webcam Record Excel/recordings/20 Circle long time test 130s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farhan\Documents\GitHub\TrajectoryTracking\Python\Webcam Record Excel\recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE04AC3-589A-4830-B29C-8E65A87A4B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0B3527-45A7-4E6B-A227-3101A1E3E1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -19751,6 +19751,6540 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot Positions'!$C$2:$C$1043</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1042"/>
+                <c:pt idx="0">
+                  <c:v>174.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>165.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>152.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>139.49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>136.43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>131.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>124.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>122.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121.15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>119.93</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>118.83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>117.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>117.36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>117.36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>117.24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>117.73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>118.46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>119.44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>121.15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>122.98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>124.45</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>126.77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>129.59</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>131.66</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>134.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>136.68</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>140.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>144.62</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>145.84</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>150.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>153.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>156.85</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>159.41</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>161.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>165.04</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>166.99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>168.95</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>171.03</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>172.01</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>172.49</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>173.11</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>173.35</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>172.49</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>171.64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>170.78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>170.17</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>168.09</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>166.26</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>165.28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>162.35</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>159.54</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>156.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>154.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>151.59</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>148.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>146.82</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>142.91</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>139.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>137.04</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>134.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>132.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>130.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>128.24</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>127.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>125.92</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>124.94</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>124.08</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>123.59</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>123.59</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>123.72</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>123.96</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>124.94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>125.43</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>126.65</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>128.85</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>129.34</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>132.4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>134.96</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>138.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>139.85</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>142.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>145.6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>148.04</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>151.96</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>154.65</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>156.97</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>161.13</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>164.43</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>166.02</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>169.56</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>172.37</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>176.9</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>178.48</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>179.95</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>180.56</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>182.03</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>183.13</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>183.25</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>183.13</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>182.64</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>182.15</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>180.56</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>179.59</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>178.36</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>176.53</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>173.59</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>172.25</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>168.83</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>166.75</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>163.57</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>161.13</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>157.46</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>154.28</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>151.59</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>148.66</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>145.97</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>143.03</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>140.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137.53</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>135.82</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>133.99</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>132.03</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>129.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>128.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>127.14</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>126.53</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>126.28</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>126.16</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>126.41</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>127.75</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>129.1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>130.81</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>132.4</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>134.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>137.53</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>137.29</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>141.57</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>145.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>147.68</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>149.88</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>154.03</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>156.85</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>160.15</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>166.14</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>168.7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>171.15</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>174.45</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>176.28</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>179.1</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>180.69</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>182.64</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>183.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>184.48</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>185.21</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>185.45</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>185.45</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>184.72</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>183.99</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>182.89</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>181.3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>179.34</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>177.87</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>175.55</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>172.98</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>170.78</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>168.58</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>164.3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>161.49</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>159.54</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>155.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>152.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>148.53</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>146.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>143.03</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>139.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>137.65</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>134.72</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>132.15</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>129.59</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>127.87</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>126.77</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>125.43</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>124.45</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>123.23</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>122.62</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>122.49</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>122.98</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>123.72</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>124.21</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>125.43</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>126.53</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>128.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>130.44</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>133.01</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>135.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>137.29</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>140.71</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>144.01</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>147.31</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>149.63</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>154.03</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>156.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>159.29</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>163.57</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>165.89</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>168.34</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>170.78</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>174.08</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>175.18</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>177.38</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>178.61</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>179.22</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>179.46</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>179.95</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>179.59</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>178.97</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>178.48</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>177.02</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>175.55</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>174.21</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>172.13</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>169.56</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>167.48</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>163.94</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>161.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>157.82</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>155.5</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>152.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>149.15</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>146.46</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>142.54</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>140.22</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>137.41</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>135.21</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>133.01</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>130.81</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>129.1</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>127.51</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>125.55</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>124.69</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>123.59</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>122.86</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>122.74</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>122.01</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>122.13</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>122.86</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>123.23</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>125.06</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>126.65</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>127.51</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>130.32</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>132.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>134.84</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>137.65</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>140.71</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>144.25</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>146.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>149.51</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>152.57</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>154.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>159.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>161.37</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>163.81</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>167.24</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>169.44</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>172.01</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>173.35</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>175.43</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>177.26</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>177.75</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>178.73</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>179.46</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>179.34</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>179.1</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>178.61</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>177.87</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>176.77</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>175.18</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>173.59</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>172.37</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>170.17</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>167.12</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>164.79</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>161.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>158.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>155.99</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>152.69</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>149.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>146.82</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>144.25</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>139.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>136.68</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>135.21</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>131.66</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>129.59</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>126.28</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>125.06</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>122.62</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>121.76</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>120.42</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>119.32</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>118.83</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>118.58</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>118.46</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>119.07</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>119.68</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>119.8</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>122.25</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>123.47</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>125.67</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>130.69</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>133.13</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>135.21</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>138.51</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>141.69</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>144.13</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>147.56</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>150.12</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>154.28</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>156.6</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>160.15</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>163.81</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>165.28</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>168.46</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>170.05</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>171.52</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>173.11</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>174.45</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>174.82</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>175.18</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>175.18</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>175.18</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>174.45</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>173.72</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>172.13</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>171.15</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>168.7</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>166.87</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>164.3</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>161.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>158.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>155.62</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>153.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>150.37</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>145.97</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>144.74</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>141.57</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>136.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>135.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>132.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>131.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>130.07</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>129.1</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>128.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>128.12</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>128.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>130.32</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>131.66</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>132.76</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>135.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>137.41</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>139.37</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>142.79</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>146.09</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>149.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>151.1</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>155.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>156.97</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>160.51</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>164.79</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>167.6</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>169.81</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>173.59</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>176.65</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>179.46</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>181.3</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>183.74</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>185.7</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>186.92</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>188.26</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>189.73</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>190.22</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>190.34</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>190.1</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>189.61</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>188.75</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>187.41</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>186.55</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>184.23</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>181.91</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>179.59</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>177.51</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>174.94</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>171.88</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>169.44</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>165.89</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>162.47</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>160.15</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>155.75</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>153.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>149.88</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>146.82</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>143.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>141.69</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>139.85</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>137.29</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>135.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>134.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>132.4</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>131.79</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>130.93</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>130.69</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>130.56</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>130.93</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>131.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>132.03</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>133.5</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>134.84</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>136.68</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>139.12</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>141.32</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>144.25</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>146.46</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>149.76</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>152.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>156.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>158.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>161.25</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>164.92</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>168.22</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>170.91</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>173.96</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>176.9</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>179.71</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>181.42</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>183.38</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>185.33</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>186.19</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>186.92</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>187.16</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>187.16</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>186.68</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>186.06</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>184.96</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>184.35</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>182.27</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>180.2</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>178.61</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>176.16</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>173.59</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>170.42</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>168.22</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>165.4</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>162.96</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>159.41</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>155.99</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>153.91</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>150.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>148.04</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>145.97</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>143.15</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>141.69</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>139.24</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>137.78</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>136.68</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>134.72</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>133.5</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>132.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>132.76</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>132.76</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>132.76</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>133.13</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>134.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>135.82</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>137.65</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>139.49</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>141.32</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>142.18</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>145.6</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>148.53</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>151.59</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>153.79</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>157.21</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>160.88</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>163.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>166.75</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>170.91</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>173.47</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>176.53</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>179.71</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>182.52</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>184.48</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>186.8</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>188.02</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>190.1</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>191.2</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>191.93</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>193.03</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>193.28</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>193.52</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>193.28</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>193.03</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>192.3</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>191.32</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>190.22</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>187.9</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>186.06</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>184.23</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>181.66</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>178.73</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>175.8</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>173.96</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>169.93</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>166.75</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>165.16</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>160.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>158.19</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>153.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>151.71</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>147.56</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>145.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>143.28</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>140.34</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>138.88</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>137.04</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>135.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>134.35</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>133.37</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>132.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>132.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>132.76</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>132.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>133.74</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>135.09</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>135.82</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>138.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>139.85</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>140.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>143.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>145.72</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>149.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>151.96</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>155.26</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>158.68</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>162.1</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>163.57</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>167.73</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>170.17</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>172.86</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>176.9</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>179.83</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>182.52</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>184.11</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>186.19</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>187.9</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>189.12</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>190.22</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>190.95</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>191.57</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>191.57</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>191.93</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>191.44</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>190.47</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>189.61</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>187.78</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>187.16</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>184.6</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>182.64</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>180.93</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>178.73</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>171.64</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>169.19</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>166.14</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>163.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>160.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>156.97</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>153.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>151.1</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>147.07</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>144.99</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>142.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>140.22</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>136.43</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>135.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>133.5</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>132.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>132.15</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>131.54</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>131.66</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>131.79</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>132.15</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>133.25</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>134.72</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>135.94</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>140.22</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>142.91</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>144.87</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>146.94</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>150.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>153.18</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>156.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>160.15</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>162.59</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>166.87</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>169.19</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>171.76</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>175.8</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>180.56</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>182.27</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>184.48</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>185.94</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>187.16</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>187.53</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>188.14</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>188.26</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>187.78</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>187.16</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>186.19</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>185.21</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>183.01</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>181.66</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>179.95</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>177.02</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>174.94</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>172.98</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>169.19</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>166.38</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>162.71</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>160.15</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>157.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>153.91</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>152.32</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>149.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>146.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>144.25</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>142.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>140.34</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>138.88</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>136.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>135.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>134.96</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>134.6</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>134.35</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>134.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>134.47</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>135.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>136.43</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>139.24</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>141.44</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>144.01</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>145.84</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>149.88</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>152.57</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>155.5</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>157.82</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>161.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>162.96</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>167.12</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>171.27</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>173.84</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>177.02</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>179.22</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>182.03</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>184.6</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>186.55</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>189.37</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>190.47</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>191.57</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>192.91</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>193.64</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>194.13</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>194.13</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>194.26</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>194.01</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>193.4</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>192.3</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>190.71</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>189.49</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>187.41</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>185.58</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>183.25</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>179.95</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>177.14</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>172.01</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>168.58</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>166.26</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>163.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>159.41</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>156.6</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>155.38</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>151.71</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>148.78</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>146.94</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>144.13</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>141.44</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>139.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>138.63</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>137.65</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>136.68</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>136.19</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>136.06</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>136.19</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>136.43</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>136.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>138.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>139.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>140.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>143.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>146.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>147.68</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>151.1</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>154.03</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>156.24</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>160.03</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>164.18</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>166.75</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>170.05</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>172.49</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>176.77</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>179.22</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>181.66</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>185.09</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>187.16</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>188.63</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>190.59</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>192.67</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>193.28</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>194.01</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>194.38</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>194.62</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>194.5</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>194.01</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>193.16</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>192.05</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>190.47</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>188.51</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>186.06</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>184.48</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>181.79</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>178.97</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>175.92</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>173.11</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>170.66</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>168.34</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>165.28</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>161.25</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>158.68</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>156.85</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>154.65</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>152.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>151.22</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>149.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>147.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>147.19</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>145.97</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>145.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>145.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>145.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>145.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>146.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>146.94</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>149.15</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>150.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>152.93</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>155.01</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>157.34</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>159.78</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>163.94</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>167.36</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>169.93</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>173.35</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>176.77</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>180.07</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>183.62</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>186.19</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>189.49</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>192.67</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>194.87</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>197.56</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>199.51</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>201.1</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>203.18</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>205.01</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>205.99</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>207.58</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>208.07</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>208.56</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>208.19</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>207.95</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>207.95</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>206.97</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>205.5</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>204.04</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>202.45</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>200.37</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>197.92</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>195.23</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>193.16</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>189.85</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>186.55</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>184.23</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>180.93</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>176.9</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>174.08</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>170.78</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>167.73</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>165.65</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>163.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>160.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>157.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>156.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>154.16</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>152.32</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>150.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>149.63</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>148.53</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>147.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>147.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>147.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>148.04</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>149.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>150.37</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>151.35</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>153.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>155.01</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>157.34</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>160.15</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>162.1</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>166.14</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>168.46</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>170.78</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>174.94</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>177.75</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>181.17</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>183.5</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>186.92</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>190.1</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>192.3</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>195.11</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>197.43</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>199.27</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>201.1</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>202.57</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>203.18</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>203.67</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>203.79</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>203.79</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>203.3</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>202.57</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>202.08</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>201.1</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>199.76</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>198.53</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>196.58</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>194.5</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>192.42</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>189.98</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>187.65</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>184.72</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>181.3</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>178.12</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>175.67</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>172.62</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>168.95</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>166.63</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>162.35</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>160.15</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>157.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>154.03</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>151.1</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>147.43</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>145.84</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>144.01</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>143.28</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>142.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>142.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>141.93</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>142.18</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>142.79</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>142.79</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>144.25</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>146.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>148.29</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>150.25</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>153.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>155.5</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>157.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>161.49</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>164.55</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>167.12</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>170.29</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>173.47</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>176.9</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>179.34</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>182.64</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>185.82</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>188.51</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>190.22</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>191.93</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>194.62</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>195.97</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>197.92</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>198.9</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>199.51</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>199.63</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>199.63</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>199.51</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>198.04</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>196.21</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>194.87</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>192.79</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>191.32</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>188.75</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>187.16</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>183.62</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>180.69</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>177.26</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>171.64</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>168.22</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>166.02</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>162.1</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>160.03</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>157.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>154.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>152.81</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>150.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>147.43</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>146.46</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>145.72</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>145.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>145.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>144.99</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>145.6</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>146.46</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>148.04</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>148.66</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>151.35</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>153.18</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>155.01</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>157.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>160.76</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>163.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>166.5</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>167.73</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>167.97</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>170.54</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>181.05</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>186.68</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>191.32</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>196.21</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>198.17</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>198.53</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>198.29</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>197.31</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>194.74</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>191.2</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>188.02</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>180.93</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>177.02</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>172.25</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>169.56</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>168.09</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>167.97</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>168.09</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>170.78</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>173.59</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>174.45</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>174.57</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>174.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D118-4D7C-ABB8-3D76123A7213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot Positions'!$F$2:$F$1043</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1042"/>
+                <c:pt idx="0">
+                  <c:v>164.0768995386475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160.81759592837591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.24315045029209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.4180374971501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152.16487825484251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>148.61690772120539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.6373050622893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.9916023751075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>137.3048664837373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133.61042051857581</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130.17775634165281</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126.7468861788132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123.1587085926157</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.2581277522509</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>117.5957428957269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115.3564283071117</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113.4271258203687</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>111.9175588991224</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110.8405790672734</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>110.1984599891511</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110.0073914736289</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110.3208353147805</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111.0712223475395</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>112.28402471985309</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113.8914607324991</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>115.8870651443489</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>118.2423009603976</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>121.25918031383991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>124.3052403207021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>127.5385755275106</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>131.0006322824305</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>134.61461561051951</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>138.26694978364449</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>141.929628944265</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>146.00458120905489</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>149.45759201066409</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>152.9522962570631</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>156.2042764182124</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159.1217840543076</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>162.11346482711869</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>164.45471641870839</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>166.3904168406587</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>167.9107064677537</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>169.05829565308611</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>169.75641590713491</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>169.99891524204961</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>169.7399601981711</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>169.0359692690929</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>167.87738757604541</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>166.35671809721069</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>164.3678924970348</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>162.0206570511516</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159.465420776701</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>156.10373001799499</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>152.7904963545524</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>149.4080233707941</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>145.88376177407659</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>142.24303244438551</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>138.22973092546459</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>134.48369082657911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>130.88905744293189</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>127.4731679533881</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>124.1932651605763</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>121.22261741879041</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>118.54186205524439</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>115.8236406425693</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>113.8095500659927</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>112.2329444989594</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>111.03597617645779</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>110.3028351628176</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>110.00573386961599</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>110.1615399856699</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>110.8545017732565</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>111.9520389842812</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>113.45860672037971</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>115.36110151567939</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>117.6074219668304</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>120.26173887926571</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>123.549101062663</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>126.76697732292671</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>130.21805580874141</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>133.71832643969481</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>137.25111212367671</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>140.97195386352709</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>145.10685954219821</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>148.67200576561001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>152.16280868436971</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>155.28205008673731</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>158.37346890493859</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>161.15082810899179</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>163.6232497313519</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>165.70116970359601</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>167.56981745486169</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>168.80513005040731</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>169.61206818767869</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>169.98110566216289</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>169.89214419811589</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>169.23731290666581</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>168.23063140726899</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>166.7152026302922</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>164.91070881299959</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>162.6028763401286</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>160.05160710672931</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>157.15773376431579</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>153.98611416816919</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>150.20697446869849</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>146.66577609601271</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>143.05798999820291</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>139.2922904213485</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>135.68388375180271</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>131.98207178404249</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>128.48003967702181</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>125.2427847720828</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>122.1588985228194</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119.1793201631525</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116.6830916452337</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>114.54032331115771</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>112.71441810395299</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>111.3710204403617</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>110.4815894604282</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>110.0455097303029</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>110.0692833069174</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>110.5811005635488</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>111.52608572326101</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>112.8898274080867</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>114.7141960165754</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>116.96601965280129</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>119.48099359777039</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>122.39236717203271</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>125.9200348405309</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>129.24368798450371</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132.73736942078571</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>136.35487705307301</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>140.13114541765279</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>143.72743568780851</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>147.50204098901679</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>151.04318567406591</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>154.4268699305089</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>157.59809384445111</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>160.362561090192</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>162.95404111845289</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>165.4357348619194</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>167.22356472437039</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>168.54060876408599</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>169.48105167640921</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>169.94033930742069</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>169.94726175815509</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>169.48584452405899</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>168.58153131601131</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>167.25509540856859</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>165.56141758495301</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>163.3492864543903</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>160.8726857753243</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>157.6819395325536</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154.62145977189149</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>151.23640054378711</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>147.73320687754909</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>144.00859257900311</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>140.29500330829231</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>136.63050352515009</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>133.0222687181672</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>129.4220575916828</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>126.0489089737207</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>122.9071355257876</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>119.89554003179479</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>117.298774850976</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>114.8141907848657</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>113.1736116961974</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>111.5875118129223</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>110.6224367007767</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>110.10295051947941</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>110.0243748031294</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>110.4001097473493</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>111.21672892541049</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>112.5001097297304</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>114.426871832427</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>116.5597066003775</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>119.0021917857006</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>121.73093168006039</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>124.7688753323626</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>128.14272155652091</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>131.7302803640799</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>135.34008014301051</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>139.04216536782661</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>142.77934947451121</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>146.34848512859071</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>150.3745114640916</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>153.83489312786281</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>156.6073635108653</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>159.92280080167171</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>162.62629738186769</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>164.82498558417939</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>166.73378985416011</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>168.20488481300109</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>169.24719510179011</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>169.84008375527031</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>169.99144693992301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>169.67064671523991</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>168.9116824862902</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>167.66601116960319</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>166.0010069679382</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>163.93012722615529</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>161.5256762269151</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>158.87209673171549</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>155.38587495122451</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>152.06454193098409</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>148.6274515319287</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>145.09051125231599</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>141.39760708948319</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>137.60290641966631</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>133.92838665365969</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>130.30785610116831</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>126.8928755619352</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>123.6398877618974</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>120.7198236352815</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>117.9604275227793</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>115.64395314504669</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>113.4709517465454</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>112.0791835490097</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>110.820021463335</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>110.17531455821189</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>110.00284806321331</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>110.2728322947046</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>111.0017398468964</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>112.1884252601332</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>113.847136187613</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>115.8740795239259</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>118.2481467461003</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>120.9748415325144</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>124.0332303363664</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>127.2147740563874</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>130.7427250405002</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>134.402005274608</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>137.9666145377733</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>141.7522297842977</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>145.52908021165089</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>149.05311165254739</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>152.63525919186111</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>155.97903578603481</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>159.00303396863379</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>161.72591615350439</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>164.1513732063496</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>166.16979285230431</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>167.7592980923983</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>168.94752558020431</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>169.77399205089901</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>169.9972583459803</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>169.7677601606305</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>169.05835183761241</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>167.9052392605947</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>166.3559461967057</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>164.36041428388901</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>162.0321272644876</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>159.25567059512679</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>156.31836799079119</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>153.12968977511991</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>149.71542621516281</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>146.1664372410614</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>142.4882854959537</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>138.7521219247206</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>135.01952808454581</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>131.3826467252384</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>127.875677751203</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>124.2880151057588</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>121.2201802055407</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>118.3940143432405</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>116.01691790836379</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>113.9692064612978</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>112.3109560648325</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>111.0818705495841</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>110.328773312335</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>110.0079354685104</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>110.1571090209346</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>110.7667300942221</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>111.8018889993412</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>113.260519750295</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>115.16794844803169</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>117.48379866315931</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>120.1691894767836</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>123.0361477635801</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>126.2849997643537</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>129.7239922933023</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>133.3384121827599</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>136.95709174827749</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>140.73715931970409</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>144.84557820399689</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>148.10175774119651</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>151.67232575389309</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>155.3114667122272</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>158.3905563081203</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>161.13431057991519</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>163.6748849125581</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>165.7442676100045</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>167.40537262107981</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>168.7535050939081</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>169.5772286392031</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>169.96717809874451</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>169.9124856819777</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>169.38345160257381</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>168.40622366163021</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>166.95307459341339</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>164.89435209439091</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>162.94975484288929</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>159.98139406291901</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>157.10511827115511</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>153.94678522552559</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>150.56328311717971</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>147.01275192912561</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>143.3457999120622</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>139.71719147334611</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>136.07754863366009</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>132.3499970224857</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>128.7325428279706</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>125.4014796343213</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>122.3033643186488</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>119.11714442181039</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>116.6101159943163</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>114.44749014667561</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>112.6896356414084</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>111.3927876956774</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>110.4886045489161</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>110.0511630169871</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>110.06758899260289</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>110.55305608696639</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>111.4675869323266</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>112.8553026852703</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>114.6234962850957</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>116.8479661635392</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>119.40918087179141</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>122.27675265001589</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>125.2914060918996</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>129.07451637527001</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>132.67883953478449</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>136.35986762475619</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>140.0121554143619</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>143.6985339346102</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>147.31303014035299</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>150.87140550051959</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>154.3070409385243</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>157.38833451162409</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>160.25365812554529</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>162.83896455543771</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>165.33475819062431</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>167.0994674497976</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>168.48821678532869</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>169.41937702273901</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>169.91930313306261</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>169.961272028107</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>169.54975164593461</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>168.6806093981065</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>167.41855071155899</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>165.4725619353807</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>163.33224302326201</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>160.85984373913399</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>157.99214214333779</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>154.90593303166841</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>151.60363579543119</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>148.08734588101211</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>144.53532720534261</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>140.75198533836729</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>136.61474048009251</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>132.89039901544621</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>129.81188730431359</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>125.9301391389542</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>122.8790382418162</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>119.87056443214129</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>117.3383428643283</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>114.9948466661961</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>113.1780734739002</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>111.72252350144279</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>110.69279290188319</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>110.1341929580631</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>110.0146927591676</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>110.36653968659751</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>111.1739420473609</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>112.4313613699542</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>114.1092903271675</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>116.185929809283</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>118.5874323265224</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>121.7210839040844</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>124.4556653834746</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>128.17767082047541</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>131.69922835243159</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>135.39029550912281</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>139.05623405330269</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>142.78810156783129</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>146.5619670928736</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>150.08091375153589</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>153.52674037588611</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>156.78890186317039</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>159.69407662844509</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>162.33565932433351</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>164.67484238218469</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>166.61508017948469</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>168.1366965350976</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>169.19900772493179</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>169.82387653316999</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>169.9961013821609</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>169.70098871933561</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>168.94487318419351</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>167.75645868010909</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>166.10329013323701</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>164.1063522448944</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>161.69823840997279</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>158.94186856302301</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>155.92358655357151</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>152.32479617675941</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>148.7955764306474</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>145.2693379928688</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>141.49899110719841</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>137.93941586245629</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>134.20368239602811</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>130.51720508563079</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>127.255387266068</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>123.5617215984051</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>120.61393407192369</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>118.0066376193836</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>115.63131080980379</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>113.6371930879063</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>112.08297655048381</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>110.9300557263734</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>110.2248399612768</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>110.0000022040294</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>110.23150898710701</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>110.9054991004483</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>112.0635229447024</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>113.6061686905491</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>115.54812590046549</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>118.1952650263087</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>120.93610034800351</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>124.00302492810179</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>127.3110182199911</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>130.74755521275361</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>134.29540801720029</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>137.97611232570429</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>141.73067215034141</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>145.33950054468571</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>148.99809837638881</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>152.47375894097601</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>155.75438711361039</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>158.84193745089951</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>161.50500299335641</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>163.93768065467941</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>165.9829971390057</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>167.67792217724929</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>169.0003026218551</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>169.73007987702471</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>169.9976431554918</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>169.80308201639451</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>169.18277494193879</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>168.09988486981521</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>166.6027935977441</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>164.69712116327861</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>162.34749527156501</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>159.76959344857951</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>156.77287915856621</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>153.4958415375749</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>149.7909874017154</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>146.23245144516429</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>142.5046869203872</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>138.73434960633509</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>135.0314631462216</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>131.38434627617681</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>127.9485705727143</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>124.6641547751648</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>121.63589300196691</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>118.83890011006299</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>116.36006613045279</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>114.0341695176533</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>112.3843918812569</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>111.1272293743956</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>110.35355483748531</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>110.0168148953021</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>110.1315827510966</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>110.7157619142649</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>111.7081400841232</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>113.1823599588684</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>115.05454066549321</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>117.29990897857211</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>119.9042455571774</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>123.122426283455</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>126.3321073777809</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>129.7453975847101</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>133.30931255589371</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>136.8625323520474</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>140.6174556318434</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>144.25160650955829</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>147.94370896799421</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>151.50744089297959</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>154.95351393074179</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>157.9400879084863</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>160.80182729717109</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>163.59091897422101</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>165.70485781117779</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>167.39657791553751</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>168.71968725474639</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>169.5623947159921</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>169.9675040570348</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>169.9192667097409</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>169.41641078668511</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>168.41750566853719</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>167.0207369396519</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>165.19897141697359</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>162.94998086812831</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>160.4783315585403</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>157.50748154330381</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>154.35509555682131</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>151.00919074151369</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>147.48162655938299</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>143.7066505861801</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>139.96969449873529</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>136.2249437859966</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>132.55773679328291</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>128.9240856800364</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>125.646838681904</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>122.1107879069268</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>119.34170620516581</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>116.8253054669056</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>114.64412768894989</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>112.794878595547</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>111.4937290702069</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>110.5357116584354</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>110.06381231967011</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>110.0521352469232</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>110.4936538673041</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>111.39228469567919</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>112.6969146269445</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>114.5062361270781</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>116.93815375211339</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>119.1419481363374</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>122.38278362383571</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>125.4216322962594</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>128.82365429829781</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>132.30036079078829</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>135.89197598589931</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>139.61160827096339</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>143.3957530831353</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>147.1372579476928</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>150.61408685791071</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>154.05510541447401</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>157.21825873176431</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>160.1341210626328</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>162.65206299592211</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>165.22077464152409</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>166.98111162998401</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>168.39788478943171</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>169.3893042186688</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>169.90180811103289</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>169.9725774169103</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>169.5878876407811</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>168.77184352356531</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>167.48800073468959</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>165.81066795961911</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>163.44554428238641</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>160.88250723743329</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>158.1967594926688</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>155.01189649844679</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>151.70022760457019</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>148.2501124123435</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>144.55457928284059</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>140.91073286959809</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>137.24897158972729</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>133.48226461216629</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>129.98959922818179</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>126.4429077342193</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>123.306908588542</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>119.9887690279354</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>117.6915380102277</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>115.08698015552319</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>113.19516574564</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>111.7428669795728</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>110.71233305077681</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>110.13713292204331</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>110.0139769253326</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>110.3446578190359</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>111.11845250117</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>112.3761617315899</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>114.09852925382209</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>116.1366137878601</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>118.65647972421181</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>121.39745405249499</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>124.40642305426</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>127.65788999294</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>131.16329764384909</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>134.7818786715074</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>138.4970268129567</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>142.64985570175909</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>146.18483484937951</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>149.76034396739749</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>153.22594771351729</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>156.46113688091381</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>159.43651379220029</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>162.09745467398079</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>164.38646733846679</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>166.4128139773247</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>167.97143991470071</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>169.11378901055559</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>169.78085875120331</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>169.9995848830668</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>169.74513923858589</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>169.0325919984675</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>167.86382331373511</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>166.25770019218959</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>164.2934949062348</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>161.64829416509829</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>158.88585526323749</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>155.8279159736046</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>152.57664082121181</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>149.0764949849914</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>145.62041252233109</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>141.9167912905483</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>138.0722166408564</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>134.4273220829395</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>130.80451938239949</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>127.3655809082221</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>124.09259549794371</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>121.0963279385427</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>118.012909335731</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>115.6891514651367</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>113.7278941225222</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>112.1251027110951</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>110.97724115748839</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>110.2519201016413</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>110.0005355875588</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>110.1985573596498</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>110.88369152257999</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>112.0050748517928</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>113.5422069917968</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>115.5150511923475</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>117.8518580373561</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>120.4379563254701</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>123.381130645705</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>127.09765391312961</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>130.46189407709559</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>134.0292348052601</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>137.68735608903029</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>141.38121292178289</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>144.95067977529041</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>148.6062229724775</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>152.16171066947061</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>155.7205601035671</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>158.8223720982173</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>161.55014038623429</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>163.9110193580056</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>166.01590956175329</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>167.62753333561429</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>168.83854113745971</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>169.64958110358069</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>169.9864205790667</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>169.8389182081194</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>169.2352328970712</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>168.1763929934281</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>166.72446746258061</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>164.77096709900869</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>162.4045715199299</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>159.8056993884332</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>156.8618257676896</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>153.61987169093749</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>150.23228598772519</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>146.71887679451899</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>142.92664033453121</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>139.16076249295509</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>135.54140801891151</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>131.81547914683469</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>127.91884079288469</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>124.9586796462889</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>121.5126913169525</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>118.7920492582488</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>116.3456340062243</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>114.23443438571159</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>112.5414831694076</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>111.24754079391791</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>110.4134568295644</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>110.02223909733701</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>110.1154429681858</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>110.6650560667444</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>111.6396816517308</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>113.0897761076246</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>114.939555268826</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>117.1391692600384</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>119.7213708046385</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>122.9285231300172</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>126.13976387637091</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>129.62631962054911</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>133.17271252761819</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>136.75772225061581</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>140.53647460121479</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>144.2476763984514</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>147.8933120446986</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>151.33441950743639</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>154.68012769329241</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>157.84193199788629</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>160.691803214939</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>163.2796729000199</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>165.4522791902296</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>167.2357262332246</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>168.58399586818541</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>169.48653055497741</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>169.94560389178179</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>169.94241543781499</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>169.39532240034899</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>168.4216294506428</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>167.02626606035579</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>165.20728592584041</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>162.97911857373299</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>160.4787605132851</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>157.59571605837581</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>154.50265086507159</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>151.16586025917249</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>147.73283322918479</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>143.5632766376599</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>139.86626228058179</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>136.11032018776601</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>132.4973188817203</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>129.02017095759021</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>125.54156224394519</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>122.39679489486591</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>119.65475024876859</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>117.0313277736721</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>114.8692245871392</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>112.981025360844</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>111.59781576307461</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>110.6205798000066</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>110.0997327402121</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>110.0497204161268</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>110.48348999586101</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>111.3530384032852</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>112.6571963885377</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>114.42787059811729</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>116.5607425651317</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>119.0589029151914</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>121.8473683929719</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>124.9619692170897</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>128.72199306465029</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>132.1079362750809</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>135.84281000132151</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>139.61468313874391</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>143.2576996351261</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>146.88362685570101</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>150.3972596886226</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>153.74965821405931</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>156.96050740764281</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>159.882078456697</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>162.79374953909431</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>165.13260093741141</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>166.9023054507681</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>168.3150690408892</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>169.32998027302881</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>169.88765774462431</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>169.979201173365</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>169.62189611606209</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>168.81404812635591</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>167.56306891469239</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>165.72580585495481</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>163.6065950386544</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>161.14029274292699</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>158.34088093229559</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>155.25884907433019</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>152.01001303053971</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>148.54096003365791</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>144.85393967363709</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>141.17942673710181</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>137.50136468453709</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>133.7332351966744</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>129.78348998415439</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>126.42175445862109</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>123.1753511717902</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>120.16547362819961</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>117.58951742567061</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>115.2553946218717</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>113.3958015417485</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>111.88570509530309</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>110.8124318880635</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>110.1718311050754</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>110.0032100462538</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>110.2876437855677</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>111.028146677268</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>112.3532460316174</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>114.01667024207551</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>116.1127633074739</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>118.48205948483449</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>121.28372085011701</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>124.26007771709109</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>127.54158802560301</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>130.99140102805279</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>134.69907396202001</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>138.28847917922681</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>142.07726343553031</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>145.76812100341411</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>149.31338620898561</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>152.86879650545421</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>156.44535291648049</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>159.32603415959159</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>162.0601044383192</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>164.36531169764589</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>166.33274815850751</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>167.89649803832791</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>169.04118101159321</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>169.7541868471279</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>169.9999691584153</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>169.77553051322809</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>169.1070350679513</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>167.8248100037365</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>166.26484089393119</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>164.2205395929692</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>161.82085371469961</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>159.0907465370729</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>156.1277711101491</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>152.78910530594601</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>149.38580470847239</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>145.7984231544547</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>142.07794509757611</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>138.35750434070661</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>134.68918679039251</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>131.10131236704541</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>127.6069016275556</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>124.3183330122782</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>121.2244973410743</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>118.4704330292801</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>115.79037574387451</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>113.7728492298679</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>112.1722260528924</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>111.00556427668209</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>110.2711914862482</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>110.0030951139136</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>110.1907661206714</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>110.8565165459828</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>111.9519552346507</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>113.43532186469299</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>115.4253303169268</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>117.71828838446081</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>120.39078736801341</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>123.34179560672079</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>126.4232180226207</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>130.24708870030571</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>133.8657617096456</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>137.54395145215719</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>141.29640334879409</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>144.8810378046438</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>148.5818676945361</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>151.99441472638841</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>155.3851774147343</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>158.43328228619089</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>161.2127337056553</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>163.66113296523889</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>165.7786377906468</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>167.4842734596383</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>168.76052653151339</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>169.6651911125565</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>169.9919440620568</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>169.85892784034911</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>169.25913550170361</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>168.2535807460057</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>166.7671108399737</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>164.84943078962451</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>162.59509579598841</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>159.97669298400319</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>157.08217639235099</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>153.79984552380739</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>150.4359993531196</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>146.92423858382591</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>143.159557244952</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>139.43984318485019</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>135.7350863708472</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>131.6577542327868</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>128.20786237332291</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>124.8813771363953</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>121.7523594372495</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>118.9640424723386</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>116.4464238652486</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>114.355977322613</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>112.6187019834364</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>111.3189270859959</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>110.4331112733301</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>110.0369695873693</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>110.0778401402563</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>110.58747818908969</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>111.53255400148851</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>112.93712004989899</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>114.77376905599181</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>117.2500528598884</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>119.56488019041829</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>122.44293773658769</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>125.5525275354548</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>129.45077955791561</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>132.95131611095829</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>136.61771354297591</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>140.33718961061061</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>144.1183674258192</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>147.78926968794201</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>151.26248155222339</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>154.60733275146319</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>157.64382472931109</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>160.48428187463841</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>163.04147126136141</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>165.48190269769839</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>167.18330161336189</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>168.5480480389966</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>169.46904481525391</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>169.94101816923359</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>169.93960150582359</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>169.48308775329181</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>168.5417359691408</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>167.1837179508768</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>165.41844751130591</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>163.19222662454649</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>160.67837300357201</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>157.7855928623448</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>154.7082047021953</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>151.33045608933881</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>147.7732408866307</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>144.1832660145333</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>140.39613370929061</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>136.71298230566629</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>132.7375678960164</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>129.19868953424719</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>125.83003073992739</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>122.6615216528271</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>119.6962965661762</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>117.08753174147429</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>114.897908235003</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>113.0563734434367</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>111.60608300288411</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>110.63740312020551</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>110.10035202081519</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>110.02822996869151</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>110.4232416978751</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>111.27303361650701</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>112.5716339292574</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>114.3237259735415</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>116.3877103294621</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>118.9255109833412</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>121.6261524591096</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>124.7315239680262</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>128.49319918113719</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>131.99973429315841</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>135.7019649701983</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>139.4129716548469</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>143.1327151938932</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>146.7871273687563</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>150.46811618849591</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>153.73724089476369</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>156.95691386162349</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>159.91415759193191</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>162.4908009540928</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>164.81053119119329</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>166.69485838585959</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>168.19342026650611</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>169.24312144033379</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>169.84195895418071</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>169.99379960093759</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>169.6120528235125</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>168.7967531183248</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>167.55683316435281</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>165.86064964902579</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>163.8362010167194</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>161.4064428135114</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>158.68629888986709</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>155.56682015811211</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>152.32464575533291</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>148.74140145153669</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>145.17311770742799</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>141.3537866028575</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>137.69081857041181</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>133.6669204027325</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>130.11174785873609</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>126.65558208697961</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>123.4800179207913</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>120.4712380625093</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>117.84091240050761</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>115.4628426973825</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>113.54491331358329</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>111.9969341765196</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>110.89407029943079</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>110.20442523382</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>110.0008169800761</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>110.26294643319071</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>110.9753380409585</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>112.1832524868701</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>113.78912889585889</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>115.7377934559224</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>118.1102635541943</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>120.8835295539575</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>123.9198882386019</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>127.22187910279671</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>131.08155613973071</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>134.60985159301231</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>138.39651011411101</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>142.07517942143431</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>145.73712097953469</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>149.4089973048327</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>152.80335967965181</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>156.0399548051945</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>159.11251210360959</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>161.7176675349194</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>164.1495613267962</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>166.1903786584507</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>167.78971195523991</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>168.97559084752521</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>169.77036905430421</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>169.99995752888259</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>169.76268483443249</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>169.07432899613499</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>167.9562890405733</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>166.44300918613999</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>164.46699691938531</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>162.0675900798943</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>159.42444581683401</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>156.52022108917771</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>153.2459712835761</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>149.47584661365289</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>146.25818871820979</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>142.51516383984861</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>138.35022019898059</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>134.6230918388822</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>131.0519131284758</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>127.5143873737027</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>124.3081151312462</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>121.20622798118841</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>118.5306487279945</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>116.1547249691928</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>114.09064940825149</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>112.370018223983</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>111.1426163449225</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>110.3329747387784</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>110.0029244229804</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>110.18786826283539</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>110.7178601940585</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>111.791975070585</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>113.2812140087654</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>115.19362311869421</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>117.7284155558269</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>120.3907058113501</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>123.2890332052355</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>126.4501722937361</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>129.9092506895781</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>133.45728269905231</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>137.060187277089</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>140.69370559639489</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>144.92718581228479</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>148.42596516941231</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>151.92400946005301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D118-4D7C-ABB8-3D76123A7213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="266194863"/>
+        <c:axId val="290264831"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="266194863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290264831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="290264831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266194863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19832,6 +26366,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -21419,18 +27993,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>189781</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257885</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>293298</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361400</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -21461,16 +28551,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>370936</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>427687</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>595223</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25879</xdr:rowOff>
+      <xdr:colOff>27695</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21499,16 +28589,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>375249</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>125082</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>443351</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>599536</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>150961</xdr:rowOff>
+      <xdr:colOff>43359</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14756</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21528,6 +28618,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261062</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>34052</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB156933-22E7-4E19-81F2-12780AEDE033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21823,13 +28951,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1043"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
